--- a/Registro_de_Acidentes.xlsx
+++ b/Registro_de_Acidentes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus-o.estagio\Desktop\Mateus Tiago\Anuário Estátistico - Thiago\Python\SITE\Template DASH\Mateus\Correção\Atividade pedida\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus-o.estagio\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9135"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="21">
   <si>
     <t>Ferrovia</t>
   </si>
@@ -145,10 +145,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J166"/>
+  <dimension ref="A1:J178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="H179" sqref="H179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,9 +442,8 @@
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="24.5703125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -533,11 +533,11 @@
         <v>40</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="2">C3-D3</f>
+        <f t="shared" ref="I3:I70" si="2">C3-D3</f>
         <v>-33</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="3">F3-C3</f>
+        <f t="shared" ref="J3:J70" si="3">F3-C3</f>
         <v>0</v>
       </c>
     </row>
@@ -916,71 +916,55 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2006</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1">
-        <f>IF(C16=D16,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <f>D16</f>
-        <v>0</v>
-      </c>
-      <c r="I16" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J16" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="D16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="1">
-        <v>2007</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
+        <v>2006</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
-        <f t="shared" ref="G17:G28" si="5">IF(C17=D17,1,0)</f>
+        <f>IF(C17=D17,1,0)</f>
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" ref="H17:H20" si="6">D17</f>
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="2"/>
-        <v>-2</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>D17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -988,31 +972,31 @@
         <v>4</v>
       </c>
       <c r="B18" s="1">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G18:G29" si="5">IF(C18=D18,1,0)</f>
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="6"/>
-        <v>8</v>
+        <f t="shared" ref="H18:H21" si="6">D18</f>
+        <v>2</v>
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1020,30 +1004,30 @@
         <v>4</v>
       </c>
       <c r="B19" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I19">
-        <f>C19-D19</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-7</v>
       </c>
       <c r="J19">
-        <f>F19-C19</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
     </row>
@@ -1052,7 +1036,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -1075,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <f t="shared" si="3"/>
+        <f>F20-C20</f>
         <v>-1</v>
       </c>
     </row>
@@ -1084,7 +1068,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="1">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -1099,11 +1083,11 @@
         <v>1</v>
       </c>
       <c r="H21" s="1">
-        <f>C21</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I21">
-        <f t="shared" si="2"/>
+        <f>C21-D21</f>
         <v>0</v>
       </c>
       <c r="J21">
@@ -1116,13 +1100,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C22" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1131,8 +1115,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" ref="H22:H28" si="7">C22</f>
-        <v>3</v>
+        <f>C22</f>
+        <v>1</v>
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
@@ -1140,7 +1124,7 @@
       </c>
       <c r="J22">
         <f t="shared" si="3"/>
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1148,7 +1132,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="1">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
@@ -1163,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="H23:H29" si="7">C23</f>
         <v>3</v>
       </c>
       <c r="I23">
@@ -1180,13 +1164,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1196,7 +1180,7 @@
       </c>
       <c r="H24" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
@@ -1204,7 +1188,7 @@
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1212,13 +1196,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C25" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1228,7 +1212,7 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
@@ -1236,7 +1220,7 @@
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1244,31 +1228,31 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <f t="shared" si="3"/>
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1276,19 +1260,19 @@
         <v>4</v>
       </c>
       <c r="B27" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
       </c>
       <c r="D27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="7"/>
@@ -1296,7 +1280,7 @@
       </c>
       <c r="I27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <f t="shared" si="3"/>
@@ -1308,13 +1292,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C28" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1324,89 +1308,73 @@
       </c>
       <c r="H28" s="1">
         <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J28">
+      <c r="B29" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
         <f t="shared" si="3"/>
         <v>-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3">
         <v>5</v>
       </c>
-      <c r="B30" s="1">
-        <v>2006</v>
-      </c>
-      <c r="C30" s="1">
-        <v>17</v>
-      </c>
-      <c r="D30" s="1">
-        <v>69</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1">
-        <f>IF(C30=D30,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
-        <f>D30</f>
-        <v>69</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="2"/>
-        <v>-52</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="3"/>
-        <v>-17</v>
-      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2007</v>
-      </c>
-      <c r="C31" s="1">
-        <v>23</v>
-      </c>
-      <c r="D31" s="1">
-        <v>54</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1">
-        <f t="shared" ref="G31:G42" si="8">IF(C31=D31,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <f t="shared" ref="H31:H34" si="9">D31</f>
-        <v>54</v>
-      </c>
       <c r="I31">
         <f t="shared" si="2"/>
-        <v>-31</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <f t="shared" si="3"/>
-        <v>-23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1414,31 +1382,31 @@
         <v>5</v>
       </c>
       <c r="B32" s="1">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C32" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D32" s="1">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1">
-        <f t="shared" si="8"/>
+        <f>IF(C32=D32,1,0)</f>
         <v>0</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="9"/>
-        <v>38</v>
+        <f>D32</f>
+        <v>69</v>
       </c>
       <c r="I32">
         <f t="shared" si="2"/>
-        <v>-28</v>
+        <v>-52</v>
       </c>
       <c r="J32">
         <f t="shared" si="3"/>
-        <v>-10</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1446,31 +1414,31 @@
         <v>5</v>
       </c>
       <c r="B33" s="1">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C33" s="1">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D33" s="1">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="G33:G44" si="8">IF(C33=D33,1,0)</f>
         <v>0</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="9"/>
-        <v>35</v>
+        <f t="shared" ref="H33:H36" si="9">D33</f>
+        <v>54</v>
       </c>
       <c r="I33">
         <f t="shared" si="2"/>
-        <v>-33</v>
+        <v>-31</v>
       </c>
       <c r="J33">
         <f t="shared" si="3"/>
-        <v>-2</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1478,13 +1446,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="1">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C34" s="1">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1494,15 +1462,15 @@
       </c>
       <c r="H34" s="1">
         <f t="shared" si="9"/>
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I34">
         <f t="shared" si="2"/>
-        <v>-19</v>
+        <v>-28</v>
       </c>
       <c r="J34">
         <f t="shared" si="3"/>
-        <v>-26</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1510,31 +1478,31 @@
         <v>5</v>
       </c>
       <c r="B35" s="1">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C35" s="1">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D35" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1">
-        <f>C35</f>
-        <v>37</v>
+        <f t="shared" si="9"/>
+        <v>35</v>
       </c>
       <c r="I35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-33</v>
       </c>
       <c r="J35">
         <f t="shared" si="3"/>
-        <v>-37</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1542,13 +1510,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="1">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C36" s="1">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D36" s="1">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1557,16 +1525,16 @@
         <v>0</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" ref="H36:H42" si="10">C36</f>
-        <v>36</v>
+        <f t="shared" si="9"/>
+        <v>45</v>
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>-19</v>
       </c>
       <c r="J36">
         <f t="shared" si="3"/>
-        <v>-36</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1574,13 +1542,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="1">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C37" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D37" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1589,8 +1557,8 @@
         <v>1</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="10"/>
-        <v>36</v>
+        <f>C37</f>
+        <v>37</v>
       </c>
       <c r="I37">
         <f t="shared" si="2"/>
@@ -1598,7 +1566,7 @@
       </c>
       <c r="J37">
         <f t="shared" si="3"/>
-        <v>-36</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1606,27 +1574,27 @@
         <v>5</v>
       </c>
       <c r="B38" s="1">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C38" s="1">
         <v>36</v>
       </c>
       <c r="D38" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="H38:H44" si="10">C38</f>
         <v>36</v>
       </c>
       <c r="I38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J38">
         <f t="shared" si="3"/>
@@ -1638,31 +1606,31 @@
         <v>5</v>
       </c>
       <c r="B39" s="1">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C39" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D39" s="1">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <f t="shared" si="3"/>
-        <v>-30</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1670,31 +1638,31 @@
         <v>5</v>
       </c>
       <c r="B40" s="1">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C40" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D40" s="1">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="10"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I40">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <f t="shared" si="3"/>
-        <v>-35</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -1702,13 +1670,13 @@
         <v>5</v>
       </c>
       <c r="B41" s="1">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C41" s="1">
         <v>30</v>
       </c>
       <c r="D41" s="1">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1722,7 +1690,7 @@
       </c>
       <c r="I41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J41">
         <f t="shared" si="3"/>
@@ -1734,13 +1702,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="1">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C42" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D42" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1750,121 +1718,105 @@
       </c>
       <c r="H42" s="1">
         <f t="shared" si="10"/>
+        <v>35</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C43" s="1">
         <v>30</v>
       </c>
-      <c r="I42">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J42">
+      <c r="D43" s="1">
+        <v>21</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="J43">
         <f t="shared" si="3"/>
         <v>-30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44" s="1">
-        <v>2006</v>
+        <v>2018</v>
       </c>
       <c r="C44" s="1">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D44" s="1">
-        <v>224</v>
+        <v>28</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1">
-        <f>IF(C44=D44,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <f>D44</f>
-        <v>224</v>
+        <f t="shared" si="10"/>
+        <v>30</v>
       </c>
       <c r="I44">
         <f t="shared" si="2"/>
-        <v>-167</v>
+        <v>2</v>
       </c>
       <c r="J44">
         <f t="shared" si="3"/>
-        <v>-57</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45" s="1">
-        <v>2007</v>
-      </c>
-      <c r="C45" s="1">
-        <v>55</v>
-      </c>
-      <c r="D45" s="1">
-        <v>191</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1">
-        <f t="shared" ref="G45:G56" si="11">IF(C45=D45,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="1">
-        <f t="shared" ref="H45:H48" si="12">D45</f>
-        <v>191</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="2"/>
-        <v>-136</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="3"/>
-        <v>-55</v>
+        <v>2019</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3">
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="1">
-        <v>2008</v>
-      </c>
-      <c r="C46" s="1">
-        <v>21</v>
-      </c>
-      <c r="D46" s="1">
-        <v>188</v>
-      </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="1">
-        <f t="shared" si="12"/>
-        <v>188</v>
-      </c>
       <c r="I46">
         <f t="shared" si="2"/>
-        <v>-167</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <f t="shared" si="3"/>
-        <v>-21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -1872,31 +1824,31 @@
         <v>6</v>
       </c>
       <c r="B47" s="1">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="C47" s="1">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D47" s="1">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1">
-        <f t="shared" si="11"/>
+        <f>IF(C47=D47,1,0)</f>
         <v>0</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="12"/>
-        <v>215</v>
+        <f>D47</f>
+        <v>224</v>
       </c>
       <c r="I47">
         <f t="shared" si="2"/>
-        <v>-189</v>
+        <v>-167</v>
       </c>
       <c r="J47">
         <f t="shared" si="3"/>
-        <v>-26</v>
+        <v>-57</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -1904,31 +1856,31 @@
         <v>6</v>
       </c>
       <c r="B48" s="1">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C48" s="1">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="D48" s="1">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="G48:G59" si="11">IF(C48=D48,1,0)</f>
         <v>0</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="12"/>
-        <v>237</v>
+        <f t="shared" ref="H48:H51" si="12">D48</f>
+        <v>191</v>
       </c>
       <c r="I48">
         <f t="shared" si="2"/>
-        <v>-123</v>
+        <v>-136</v>
       </c>
       <c r="J48">
         <f t="shared" si="3"/>
-        <v>-114</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -1936,13 +1888,13 @@
         <v>6</v>
       </c>
       <c r="B49" s="1">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="C49" s="1">
-        <v>199</v>
+        <v>21</v>
       </c>
       <c r="D49" s="1">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1951,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="H49" s="1">
-        <f>C49</f>
-        <v>199</v>
+        <f t="shared" si="12"/>
+        <v>188</v>
       </c>
       <c r="I49">
         <f t="shared" si="2"/>
-        <v>-7</v>
+        <v>-167</v>
       </c>
       <c r="J49">
         <f t="shared" si="3"/>
-        <v>-199</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -1968,13 +1920,13 @@
         <v>6</v>
       </c>
       <c r="B50" s="1">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="C50" s="1">
-        <v>217</v>
+        <v>26</v>
       </c>
       <c r="D50" s="1">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -1983,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" ref="H50:H56" si="13">C50</f>
-        <v>217</v>
+        <f t="shared" si="12"/>
+        <v>215</v>
       </c>
       <c r="I50">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>-189</v>
       </c>
       <c r="J50">
         <f t="shared" si="3"/>
-        <v>-217</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2000,13 +1952,13 @@
         <v>6</v>
       </c>
       <c r="B51" s="1">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C51" s="1">
-        <v>212</v>
+        <v>114</v>
       </c>
       <c r="D51" s="1">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2015,16 +1967,16 @@
         <v>0</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="13"/>
-        <v>212</v>
+        <f t="shared" si="12"/>
+        <v>237</v>
       </c>
       <c r="I51">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>-123</v>
       </c>
       <c r="J51">
         <f t="shared" si="3"/>
-        <v>-212</v>
+        <v>-114</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2032,13 +1984,13 @@
         <v>6</v>
       </c>
       <c r="B52" s="1">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="C52" s="1">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="D52" s="1">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2047,16 +1999,16 @@
         <v>0</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" si="13"/>
-        <v>233</v>
+        <f>C52</f>
+        <v>199</v>
       </c>
       <c r="I52">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="J52">
         <f t="shared" si="3"/>
-        <v>-233</v>
+        <v>-199</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2064,13 +2016,13 @@
         <v>6</v>
       </c>
       <c r="B53" s="1">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C53" s="1">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="D53" s="1">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -2079,16 +2031,16 @@
         <v>0</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="13"/>
-        <v>177</v>
+        <f t="shared" ref="H53:H59" si="13">C53</f>
+        <v>217</v>
       </c>
       <c r="I53">
         <f t="shared" si="2"/>
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <f t="shared" si="3"/>
-        <v>-177</v>
+        <v>-217</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2096,13 +2048,13 @@
         <v>6</v>
       </c>
       <c r="B54" s="1">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C54" s="1">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="D54" s="1">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -2112,15 +2064,15 @@
       </c>
       <c r="H54" s="1">
         <f t="shared" si="13"/>
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="I54">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="J54">
         <f t="shared" si="3"/>
-        <v>-167</v>
+        <v>-212</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2128,13 +2080,13 @@
         <v>6</v>
       </c>
       <c r="B55" s="1">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="C55" s="1">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="D55" s="1">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -2144,7 +2096,7 @@
       </c>
       <c r="H55" s="1">
         <f t="shared" si="13"/>
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="I55">
         <f t="shared" si="2"/>
@@ -2152,7 +2104,7 @@
       </c>
       <c r="J55">
         <f t="shared" si="3"/>
-        <v>-184</v>
+        <v>-233</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2160,13 +2112,13 @@
         <v>6</v>
       </c>
       <c r="B56" s="1">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C56" s="1">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D56" s="1">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2176,153 +2128,137 @@
       </c>
       <c r="H56" s="1">
         <f t="shared" si="13"/>
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="I56">
         <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="3"/>
+        <v>-177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C57" s="1">
+        <v>167</v>
+      </c>
+      <c r="D57" s="1">
+        <v>168</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="13"/>
+        <v>167</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="J56">
-        <f t="shared" si="3"/>
-        <v>-191</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I57">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="J57">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-167</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B58" s="1">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="C58" s="1">
-        <v>37</v>
-      </c>
-      <c r="D58" s="2">
-        <v>195</v>
+        <v>184</v>
+      </c>
+      <c r="D58" s="1">
+        <v>187</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1">
-        <f>IF(C58=D58,1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H58" s="1">
-        <f>D58</f>
-        <v>195</v>
+        <f t="shared" si="13"/>
+        <v>184</v>
       </c>
       <c r="I58">
         <f t="shared" si="2"/>
-        <v>-158</v>
+        <v>-3</v>
       </c>
       <c r="J58">
         <f t="shared" si="3"/>
-        <v>-37</v>
+        <v>-184</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B59" s="1">
-        <v>2007</v>
+        <v>2018</v>
       </c>
       <c r="C59" s="1">
-        <v>54</v>
-      </c>
-      <c r="D59" s="2">
-        <v>145</v>
+        <v>191</v>
+      </c>
+      <c r="D59" s="1">
+        <v>192</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1">
-        <f t="shared" ref="G59:G70" si="14">IF(C59=D59,1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" ref="H59:H62" si="15">D59</f>
-        <v>145</v>
+        <f t="shared" si="13"/>
+        <v>191</v>
       </c>
       <c r="I59">
         <f t="shared" si="2"/>
-        <v>-91</v>
+        <v>-1</v>
       </c>
       <c r="J59">
         <f t="shared" si="3"/>
-        <v>-54</v>
+        <v>-191</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B60" s="1">
-        <v>2008</v>
-      </c>
-      <c r="C60" s="1">
-        <v>40</v>
-      </c>
-      <c r="D60" s="2">
-        <v>161</v>
-      </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="1">
-        <f t="shared" si="15"/>
-        <v>161</v>
-      </c>
-      <c r="I60">
-        <f t="shared" si="2"/>
-        <v>-121</v>
-      </c>
-      <c r="J60">
-        <f t="shared" si="3"/>
-        <v>-40</v>
+        <v>2019</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3">
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="1">
-        <v>2009</v>
-      </c>
-      <c r="C61" s="1">
-        <v>93</v>
-      </c>
-      <c r="D61" s="2">
-        <v>186</v>
-      </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H61" s="1">
-        <f t="shared" si="15"/>
-        <v>186</v>
-      </c>
       <c r="I61">
         <f t="shared" si="2"/>
-        <v>-93</v>
+        <v>0</v>
       </c>
       <c r="J61">
         <f t="shared" si="3"/>
-        <v>-93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2330,31 +2266,31 @@
         <v>7</v>
       </c>
       <c r="B62" s="1">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C62" s="1">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="D62" s="2">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1">
-        <f t="shared" si="14"/>
+        <f>IF(C62=D62,1,0)</f>
         <v>0</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="15"/>
-        <v>239</v>
+        <f>D62</f>
+        <v>195</v>
       </c>
       <c r="I62">
         <f t="shared" si="2"/>
-        <v>-136</v>
+        <v>-158</v>
       </c>
       <c r="J62">
         <f t="shared" si="3"/>
-        <v>-103</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2362,31 +2298,31 @@
         <v>7</v>
       </c>
       <c r="B63" s="1">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C63" s="1">
-        <v>195</v>
+        <v>54</v>
       </c>
       <c r="D63" s="2">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="G63:G74" si="14">IF(C63=D63,1,0)</f>
         <v>0</v>
       </c>
       <c r="H63" s="1">
-        <f>C63</f>
-        <v>195</v>
+        <f t="shared" ref="H63:H66" si="15">D63</f>
+        <v>145</v>
       </c>
       <c r="I63">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>-91</v>
       </c>
       <c r="J63">
         <f t="shared" si="3"/>
-        <v>-195</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2394,31 +2330,31 @@
         <v>7</v>
       </c>
       <c r="B64" s="1">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C64" s="1">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="D64" s="2">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="1">
-        <f t="shared" ref="H64:H70" si="16">C64</f>
-        <v>183</v>
+        <f t="shared" si="15"/>
+        <v>161</v>
       </c>
       <c r="I64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-121</v>
       </c>
       <c r="J64">
         <f t="shared" si="3"/>
-        <v>-183</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -2426,13 +2362,13 @@
         <v>7</v>
       </c>
       <c r="B65" s="1">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C65" s="1">
-        <v>207</v>
+        <v>93</v>
       </c>
       <c r="D65" s="2">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2441,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" si="16"/>
-        <v>207</v>
+        <f t="shared" si="15"/>
+        <v>186</v>
       </c>
       <c r="I65">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>-93</v>
       </c>
       <c r="J65">
         <f t="shared" si="3"/>
-        <v>-207</v>
+        <v>-93</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -2458,31 +2394,31 @@
         <v>7</v>
       </c>
       <c r="B66" s="1">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C66" s="1">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="D66" s="2">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" si="16"/>
-        <v>194</v>
+        <f t="shared" si="15"/>
+        <v>239</v>
       </c>
       <c r="I66">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-136</v>
       </c>
       <c r="J66">
         <f t="shared" si="3"/>
-        <v>-194</v>
+        <v>-103</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -2490,13 +2426,13 @@
         <v>7</v>
       </c>
       <c r="B67" s="1">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C67" s="1">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c r="D67" s="2">
-        <v>287</v>
+        <v>194</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -2505,16 +2441,16 @@
         <v>0</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" si="16"/>
-        <v>288</v>
+        <f>C67</f>
+        <v>195</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I129" si="17">C67-D67</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J130" si="18">F67-C67</f>
-        <v>-288</v>
+        <f t="shared" si="3"/>
+        <v>-195</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -2522,31 +2458,31 @@
         <v>7</v>
       </c>
       <c r="B68" s="1">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C68" s="1">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D68" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" si="16"/>
-        <v>181</v>
+        <f t="shared" ref="H68:H74" si="16">C68</f>
+        <v>183</v>
       </c>
       <c r="I68">
-        <f t="shared" si="17"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J68">
-        <f t="shared" si="18"/>
-        <v>-181</v>
+        <f t="shared" si="3"/>
+        <v>-183</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -2554,31 +2490,31 @@
         <v>7</v>
       </c>
       <c r="B69" s="1">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C69" s="1">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D69" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" s="1">
         <f t="shared" si="16"/>
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="I69">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-1</v>
       </c>
       <c r="J69">
-        <f t="shared" si="18"/>
-        <v>-201</v>
+        <f t="shared" si="3"/>
+        <v>-207</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -2586,13 +2522,13 @@
         <v>7</v>
       </c>
       <c r="B70" s="1">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C70" s="1">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="D70" s="2">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -2602,186 +2538,170 @@
       </c>
       <c r="H70" s="1">
         <f t="shared" si="16"/>
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="I70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J70">
-        <f t="shared" si="18"/>
-        <v>-217</v>
+        <f t="shared" si="3"/>
+        <v>-194</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D71" s="2"/>
+      <c r="A71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C71" s="1">
+        <v>288</v>
+      </c>
+      <c r="D71" s="2">
+        <v>287</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <f t="shared" si="16"/>
+        <v>288</v>
+      </c>
       <c r="I71">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" ref="I71:I138" si="17">C71-D71</f>
+        <v>1</v>
       </c>
       <c r="J71">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" ref="J71:J139" si="18">F71-C71</f>
+        <v>-288</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B72" s="1">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="C72" s="1">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="D72" s="2">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1">
-        <f>IF(C72=D72,1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H72" s="1">
-        <f>D72</f>
-        <v>145</v>
+        <f t="shared" si="16"/>
+        <v>181</v>
       </c>
       <c r="I72">
         <f t="shared" si="17"/>
-        <v>-101</v>
+        <v>4</v>
       </c>
       <c r="J72">
         <f t="shared" si="18"/>
-        <v>-44</v>
+        <v>-181</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B73" s="1">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="C73" s="1">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="D73" s="2">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1">
-        <f t="shared" ref="G73:G84" si="19">IF(C73=D73,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="H73" s="1">
-        <f t="shared" ref="H73:H76" si="20">D73</f>
-        <v>139</v>
+        <f t="shared" si="16"/>
+        <v>201</v>
       </c>
       <c r="I73">
         <f t="shared" si="17"/>
-        <v>-119</v>
+        <v>0</v>
       </c>
       <c r="J73">
         <f t="shared" si="18"/>
-        <v>-20</v>
+        <v>-201</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B74" s="1">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="C74" s="1">
-        <v>10</v>
+        <v>217</v>
       </c>
       <c r="D74" s="2">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="H74" s="1">
-        <f t="shared" si="20"/>
-        <v>149</v>
+        <f t="shared" si="16"/>
+        <v>217</v>
       </c>
       <c r="I74">
         <f t="shared" si="17"/>
-        <v>-139</v>
+        <v>0</v>
       </c>
       <c r="J74">
         <f t="shared" si="18"/>
-        <v>-10</v>
+        <v>-217</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B75" s="1">
-        <v>2009</v>
-      </c>
-      <c r="C75" s="1">
-        <v>41</v>
-      </c>
-      <c r="D75" s="2">
-        <v>129</v>
-      </c>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="H75" s="1">
-        <f t="shared" si="20"/>
-        <v>129</v>
-      </c>
-      <c r="I75">
-        <f t="shared" si="17"/>
-        <v>-88</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="18"/>
-        <v>-41</v>
+        <v>2019</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3">
+        <v>283</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" s="1">
-        <v>2010</v>
-      </c>
-      <c r="C76" s="1">
-        <v>59</v>
-      </c>
-      <c r="D76" s="2">
-        <v>138</v>
-      </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="H76" s="1">
-        <f t="shared" si="20"/>
-        <v>138</v>
-      </c>
+      <c r="D76" s="2"/>
       <c r="I76">
         <f t="shared" si="17"/>
-        <v>-79</v>
+        <v>0</v>
       </c>
       <c r="J76">
         <f t="shared" si="18"/>
-        <v>-59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -2789,31 +2709,31 @@
         <v>8</v>
       </c>
       <c r="B77" s="1">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="C77" s="1">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="D77" s="2">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1">
-        <f t="shared" si="19"/>
+        <f>IF(C77=D77,1,0)</f>
         <v>0</v>
       </c>
       <c r="H77" s="1">
-        <f>C77</f>
-        <v>136</v>
+        <f>D77</f>
+        <v>145</v>
       </c>
       <c r="I77">
         <f t="shared" si="17"/>
-        <v>14</v>
+        <v>-101</v>
       </c>
       <c r="J77">
         <f t="shared" si="18"/>
-        <v>-136</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -2821,10 +2741,10 @@
         <v>8</v>
       </c>
       <c r="B78" s="1">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="C78" s="1">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="D78" s="2">
         <v>139</v>
@@ -2832,20 +2752,20 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="G78:G89" si="19">IF(C78=D78,1,0)</f>
         <v>0</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" ref="H78:H84" si="21">C78</f>
-        <v>144</v>
+        <f t="shared" ref="H78:H81" si="20">D78</f>
+        <v>139</v>
       </c>
       <c r="I78">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>-119</v>
       </c>
       <c r="J78">
         <f t="shared" si="18"/>
-        <v>-144</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -2853,13 +2773,13 @@
         <v>8</v>
       </c>
       <c r="B79" s="1">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="C79" s="1">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="D79" s="2">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -2868,16 +2788,16 @@
         <v>0</v>
       </c>
       <c r="H79" s="1">
-        <f t="shared" si="21"/>
-        <v>123</v>
+        <f t="shared" si="20"/>
+        <v>149</v>
       </c>
       <c r="I79">
         <f t="shared" si="17"/>
-        <v>-4</v>
+        <v>-139</v>
       </c>
       <c r="J79">
         <f t="shared" si="18"/>
-        <v>-123</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -2885,13 +2805,13 @@
         <v>8</v>
       </c>
       <c r="B80" s="1">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="C80" s="1">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="D80" s="2">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -2900,16 +2820,16 @@
         <v>0</v>
       </c>
       <c r="H80" s="1">
-        <f t="shared" si="21"/>
-        <v>108</v>
+        <f t="shared" si="20"/>
+        <v>129</v>
       </c>
       <c r="I80">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>-88</v>
       </c>
       <c r="J80">
         <f t="shared" si="18"/>
-        <v>-108</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -2917,13 +2837,13 @@
         <v>8</v>
       </c>
       <c r="B81" s="1">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="C81" s="1">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="D81" s="2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -2932,16 +2852,16 @@
         <v>0</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" si="21"/>
-        <v>130</v>
+        <f t="shared" si="20"/>
+        <v>138</v>
       </c>
       <c r="I81">
         <f t="shared" si="17"/>
-        <v>-1</v>
+        <v>-79</v>
       </c>
       <c r="J81">
         <f t="shared" si="18"/>
-        <v>-130</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -2949,13 +2869,13 @@
         <v>8</v>
       </c>
       <c r="B82" s="1">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="C82" s="1">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="D82" s="2">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -2964,16 +2884,16 @@
         <v>0</v>
       </c>
       <c r="H82" s="1">
-        <f t="shared" si="21"/>
-        <v>79</v>
+        <f>C82</f>
+        <v>136</v>
       </c>
       <c r="I82">
         <f t="shared" si="17"/>
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="J82">
         <f t="shared" si="18"/>
-        <v>-79</v>
+        <v>-136</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -2981,13 +2901,13 @@
         <v>8</v>
       </c>
       <c r="B83" s="1">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C83" s="1">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="D83" s="2">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -2996,16 +2916,16 @@
         <v>0</v>
       </c>
       <c r="H83" s="1">
-        <f t="shared" si="21"/>
-        <v>75</v>
+        <f t="shared" ref="H83:H89" si="21">C83</f>
+        <v>144</v>
       </c>
       <c r="I83">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J83">
         <f t="shared" si="18"/>
-        <v>-75</v>
+        <v>-144</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -3013,13 +2933,13 @@
         <v>8</v>
       </c>
       <c r="B84" s="1">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C84" s="1">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="D84" s="2">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -3029,218 +2949,202 @@
       </c>
       <c r="H84" s="1">
         <f t="shared" si="21"/>
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="I84">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="J84">
         <f t="shared" si="18"/>
-        <v>-101</v>
+        <v>-123</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D85" s="2"/>
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C85" s="1">
+        <v>108</v>
+      </c>
+      <c r="D85" s="2">
+        <v>104</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H85" s="1">
+        <f t="shared" si="21"/>
+        <v>108</v>
+      </c>
       <c r="I85">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J85">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-108</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B86" s="1">
-        <v>2006</v>
+        <v>2015</v>
       </c>
       <c r="C86" s="1">
-        <v>16</v>
-      </c>
-      <c r="D86" s="1">
-        <v>452</v>
+        <v>130</v>
+      </c>
+      <c r="D86" s="2">
+        <v>131</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1">
-        <f>IF(C86=D86,1,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H86" s="1">
-        <f>D86</f>
-        <v>452</v>
+        <f t="shared" si="21"/>
+        <v>130</v>
       </c>
       <c r="I86">
         <f t="shared" si="17"/>
-        <v>-436</v>
+        <v>-1</v>
       </c>
       <c r="J86">
         <f t="shared" si="18"/>
-        <v>-16</v>
+        <v>-130</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B87" s="1">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="C87" s="1">
-        <v>4</v>
-      </c>
-      <c r="D87" s="1">
-        <v>133</v>
+        <v>79</v>
+      </c>
+      <c r="D87" s="2">
+        <v>80</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1">
-        <f t="shared" ref="G87:G98" si="22">IF(C87=D87,1,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" ref="H87:H90" si="23">D87</f>
-        <v>133</v>
+        <f t="shared" si="21"/>
+        <v>79</v>
       </c>
       <c r="I87">
         <f t="shared" si="17"/>
-        <v>-129</v>
+        <v>-1</v>
       </c>
       <c r="J87">
         <f t="shared" si="18"/>
-        <v>-4</v>
+        <v>-79</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B88" s="1">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="C88" s="1">
-        <v>2</v>
-      </c>
-      <c r="D88" s="1">
-        <v>83</v>
+        <v>75</v>
+      </c>
+      <c r="D88" s="2">
+        <v>74</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H88" s="1">
-        <f t="shared" si="23"/>
-        <v>83</v>
+        <f t="shared" si="21"/>
+        <v>75</v>
       </c>
       <c r="I88">
         <f t="shared" si="17"/>
-        <v>-81</v>
+        <v>1</v>
       </c>
       <c r="J88">
         <f t="shared" si="18"/>
-        <v>-2</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B89" s="1">
-        <v>2009</v>
+        <v>2018</v>
       </c>
       <c r="C89" s="1">
-        <v>26</v>
-      </c>
-      <c r="D89" s="1">
-        <v>51</v>
+        <v>101</v>
+      </c>
+      <c r="D89" s="2">
+        <v>100</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H89" s="1">
-        <f t="shared" si="23"/>
-        <v>51</v>
+        <f t="shared" si="21"/>
+        <v>101</v>
       </c>
       <c r="I89">
         <f t="shared" si="17"/>
-        <v>-25</v>
+        <v>1</v>
       </c>
       <c r="J89">
         <f t="shared" si="18"/>
-        <v>-26</v>
+        <v>-101</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B90" s="1">
-        <v>2010</v>
-      </c>
-      <c r="C90" s="1">
-        <v>17</v>
-      </c>
-      <c r="D90" s="1">
-        <v>71</v>
-      </c>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H90" s="1">
-        <f t="shared" si="23"/>
-        <v>71</v>
-      </c>
-      <c r="I90">
-        <f t="shared" si="17"/>
-        <v>-54</v>
-      </c>
-      <c r="J90">
-        <f t="shared" si="18"/>
-        <v>-17</v>
+        <v>2019</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3">
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91" s="1">
-        <v>2011</v>
-      </c>
-      <c r="C91" s="1">
-        <v>68</v>
-      </c>
-      <c r="D91" s="1">
-        <v>67</v>
-      </c>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H91" s="1">
-        <f>C91</f>
-        <v>68</v>
-      </c>
+      <c r="D91" s="2"/>
       <c r="I91">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91">
         <f t="shared" si="18"/>
-        <v>-68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -3248,31 +3152,31 @@
         <v>9</v>
       </c>
       <c r="B92" s="1">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="C92" s="1">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="D92" s="1">
-        <v>68</v>
+        <v>452</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1">
-        <f t="shared" si="22"/>
+        <f>IF(C92=D92,1,0)</f>
         <v>0</v>
       </c>
       <c r="H92" s="1">
-        <f t="shared" ref="H92:H98" si="24">C92</f>
-        <v>75</v>
+        <f>D92</f>
+        <v>452</v>
       </c>
       <c r="I92">
         <f t="shared" si="17"/>
-        <v>7</v>
+        <v>-436</v>
       </c>
       <c r="J92">
         <f t="shared" si="18"/>
-        <v>-75</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -3280,31 +3184,31 @@
         <v>9</v>
       </c>
       <c r="B93" s="1">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="C93" s="1">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="D93" s="1">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="G93:G104" si="22">IF(C93=D93,1,0)</f>
         <v>0</v>
       </c>
       <c r="H93" s="1">
-        <f t="shared" si="24"/>
-        <v>49</v>
+        <f t="shared" ref="H93:H96" si="23">D93</f>
+        <v>133</v>
       </c>
       <c r="I93">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>-129</v>
       </c>
       <c r="J93">
         <f t="shared" si="18"/>
-        <v>-49</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -3312,13 +3216,13 @@
         <v>9</v>
       </c>
       <c r="B94" s="1">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="C94" s="1">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D94" s="1">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -3327,16 +3231,16 @@
         <v>0</v>
       </c>
       <c r="H94" s="1">
-        <f t="shared" si="24"/>
-        <v>45</v>
+        <f t="shared" si="23"/>
+        <v>83</v>
       </c>
       <c r="I94">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>-81</v>
       </c>
       <c r="J94">
         <f t="shared" si="18"/>
-        <v>-45</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -3344,10 +3248,10 @@
         <v>9</v>
       </c>
       <c r="B95" s="1">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="C95" s="1">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D95" s="1">
         <v>51</v>
@@ -3356,19 +3260,19 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>51</v>
       </c>
       <c r="I95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="J95">
         <f t="shared" si="18"/>
-        <v>-51</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -3376,31 +3280,31 @@
         <v>9</v>
       </c>
       <c r="B96" s="1">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="C96" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D96" s="1">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" s="1">
-        <f t="shared" si="24"/>
-        <v>18</v>
+        <f t="shared" si="23"/>
+        <v>71</v>
       </c>
       <c r="I96">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>-54</v>
       </c>
       <c r="J96">
         <f t="shared" si="18"/>
-        <v>-18</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -3408,31 +3312,31 @@
         <v>9</v>
       </c>
       <c r="B97" s="1">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="C97" s="1">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D97" s="1">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" s="1">
-        <f t="shared" si="24"/>
-        <v>27</v>
+        <f>C97</f>
+        <v>68</v>
       </c>
       <c r="I97">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97">
         <f t="shared" si="18"/>
-        <v>-27</v>
+        <v>-68</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -3440,265 +3344,249 @@
         <v>9</v>
       </c>
       <c r="B98" s="1">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="C98" s="1">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D98" s="1">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" s="1">
+        <f t="shared" ref="H98:H104" si="24">C98</f>
+        <v>75</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="18"/>
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C99" s="1">
+        <v>49</v>
+      </c>
+      <c r="D99" s="1">
+        <v>45</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H99" s="1">
         <f t="shared" si="24"/>
-        <v>35</v>
-      </c>
-      <c r="I98">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J98">
-        <f t="shared" si="18"/>
-        <v>-35</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
       <c r="I99">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J99">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B100" s="1">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="C100" s="1">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D100" s="1">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1">
-        <f>IF(C100=D100,1,0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H100" s="1">
-        <f>D100</f>
-        <v>171</v>
+        <f t="shared" si="24"/>
+        <v>45</v>
       </c>
       <c r="I100">
         <f t="shared" si="17"/>
-        <v>-170</v>
+        <v>2</v>
       </c>
       <c r="J100">
         <f t="shared" si="18"/>
-        <v>-1</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B101" s="1">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="C101" s="1">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D101" s="1">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1">
-        <f t="shared" ref="G101:G112" si="25">IF(C101=D101,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="H101" s="1">
-        <f t="shared" ref="H101:H104" si="26">D101</f>
-        <v>67</v>
+        <f t="shared" si="24"/>
+        <v>51</v>
       </c>
       <c r="I101">
         <f t="shared" si="17"/>
-        <v>-66</v>
+        <v>0</v>
       </c>
       <c r="J101">
         <f t="shared" si="18"/>
-        <v>-1</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B102" s="1">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="C102" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D102" s="1">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="H102" s="1">
-        <f t="shared" si="26"/>
-        <v>28</v>
+        <f t="shared" si="24"/>
+        <v>18</v>
       </c>
       <c r="I102">
         <f t="shared" si="17"/>
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="J102">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B103" s="1">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="C103" s="1">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D103" s="1">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="H103" s="1">
-        <f t="shared" si="26"/>
-        <v>50</v>
+        <f t="shared" si="24"/>
+        <v>27</v>
       </c>
       <c r="I103">
         <f t="shared" si="17"/>
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="J103">
         <f t="shared" si="18"/>
-        <v>-3</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B104" s="1">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="C104" s="1">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D104" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="H104" s="1">
-        <f t="shared" si="26"/>
-        <v>29</v>
+        <f t="shared" si="24"/>
+        <v>35</v>
       </c>
       <c r="I104">
         <f t="shared" si="17"/>
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="J104">
         <f t="shared" si="18"/>
-        <v>-7</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B105" s="1">
-        <v>2011</v>
-      </c>
-      <c r="C105" s="1">
-        <v>15</v>
-      </c>
-      <c r="D105" s="1">
-        <v>16</v>
-      </c>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="H105" s="1">
-        <f>C105</f>
-        <v>15</v>
-      </c>
-      <c r="I105">
-        <f t="shared" si="17"/>
-        <v>-1</v>
-      </c>
-      <c r="J105">
-        <f t="shared" si="18"/>
-        <v>-15</v>
+        <v>2019</v>
+      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3">
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B106" s="1">
-        <v>2012</v>
-      </c>
-      <c r="C106" s="1">
-        <v>16</v>
-      </c>
-      <c r="D106" s="1">
-        <v>19</v>
-      </c>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="H106" s="1">
-        <f t="shared" ref="H106:H112" si="27">C106</f>
-        <v>16</v>
-      </c>
       <c r="I106">
         <f t="shared" si="17"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J106">
         <f t="shared" si="18"/>
-        <v>-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -3706,31 +3594,31 @@
         <v>10</v>
       </c>
       <c r="B107" s="1">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="C107" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D107" s="1">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1">
-        <f t="shared" si="25"/>
+        <f>IF(C107=D107,1,0)</f>
         <v>0</v>
       </c>
       <c r="H107" s="1">
-        <f t="shared" si="27"/>
-        <v>20</v>
+        <f>D107</f>
+        <v>171</v>
       </c>
       <c r="I107">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>-170</v>
       </c>
       <c r="J107">
         <f t="shared" si="18"/>
-        <v>-20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -3738,31 +3626,31 @@
         <v>10</v>
       </c>
       <c r="B108" s="1">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="C108" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D108" s="1">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="G108:G119" si="25">IF(C108=D108,1,0)</f>
         <v>0</v>
       </c>
       <c r="H108" s="1">
-        <f t="shared" si="27"/>
-        <v>19</v>
+        <f t="shared" ref="H108:H111" si="26">D108</f>
+        <v>67</v>
       </c>
       <c r="I108">
         <f t="shared" si="17"/>
-        <v>-2</v>
+        <v>-66</v>
       </c>
       <c r="J108">
         <f t="shared" si="18"/>
-        <v>-19</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -3770,13 +3658,13 @@
         <v>10</v>
       </c>
       <c r="B109" s="1">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="C109" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D109" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -3785,16 +3673,16 @@
         <v>0</v>
       </c>
       <c r="H109" s="1">
-        <f t="shared" si="27"/>
-        <v>25</v>
+        <f t="shared" si="26"/>
+        <v>28</v>
       </c>
       <c r="I109">
         <f t="shared" si="17"/>
-        <v>-2</v>
+        <v>-28</v>
       </c>
       <c r="J109">
         <f t="shared" si="18"/>
-        <v>-25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -3802,13 +3690,13 @@
         <v>10</v>
       </c>
       <c r="B110" s="1">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="C110" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D110" s="1">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -3817,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="H110" s="1">
-        <f t="shared" si="27"/>
-        <v>13</v>
+        <f t="shared" si="26"/>
+        <v>50</v>
       </c>
       <c r="I110">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>-47</v>
       </c>
       <c r="J110">
         <f t="shared" si="18"/>
-        <v>-13</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -3834,13 +3722,13 @@
         <v>10</v>
       </c>
       <c r="B111" s="1">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="C111" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D111" s="1">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -3849,16 +3737,16 @@
         <v>0</v>
       </c>
       <c r="H111" s="1">
-        <f t="shared" si="27"/>
-        <v>14</v>
+        <f t="shared" si="26"/>
+        <v>29</v>
       </c>
       <c r="I111">
         <f t="shared" si="17"/>
-        <v>-1</v>
+        <v>-22</v>
       </c>
       <c r="J111">
         <f t="shared" si="18"/>
-        <v>-14</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -3866,10 +3754,10 @@
         <v>10</v>
       </c>
       <c r="B112" s="1">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="C112" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D112" s="1">
         <v>16</v>
@@ -3878,285 +3766,269 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112" s="1">
-        <f t="shared" si="27"/>
+        <f>C112</f>
+        <v>15</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="18"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C113" s="1">
         <v>16</v>
       </c>
-      <c r="I112">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J112">
+      <c r="D113" s="1">
+        <v>19</v>
+      </c>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="H113" s="1">
+        <f t="shared" ref="H113:H119" si="27">C113</f>
+        <v>16</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="17"/>
+        <v>-3</v>
+      </c>
+      <c r="J113">
         <f t="shared" si="18"/>
         <v>-16</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I113">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J113">
-        <f t="shared" si="18"/>
-        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B114" s="1">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="C114" s="1">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D114" s="1">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1">
-        <f>IF(C114=D114,1,0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H114" s="1">
-        <f>D114</f>
-        <v>101</v>
+        <f t="shared" si="27"/>
+        <v>20</v>
       </c>
       <c r="I114">
         <f t="shared" si="17"/>
-        <v>-48</v>
+        <v>2</v>
       </c>
       <c r="J114">
         <f t="shared" si="18"/>
-        <v>-53</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B115" s="1">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="C115" s="1">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D115" s="1">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1">
-        <f t="shared" ref="G115:G126" si="28">IF(C115=D115,1,0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H115" s="1">
-        <f t="shared" ref="H115:H118" si="29">D115</f>
-        <v>100</v>
+        <f t="shared" si="27"/>
+        <v>19</v>
       </c>
       <c r="I115">
         <f t="shared" si="17"/>
-        <v>-42</v>
+        <v>-2</v>
       </c>
       <c r="J115">
         <f t="shared" si="18"/>
-        <v>-58</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B116" s="1">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="C116" s="1">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D116" s="1">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H116" s="1">
-        <f t="shared" si="29"/>
-        <v>103</v>
+        <f t="shared" si="27"/>
+        <v>25</v>
       </c>
       <c r="I116">
         <f t="shared" si="17"/>
-        <v>-59</v>
+        <v>-2</v>
       </c>
       <c r="J116">
         <f t="shared" si="18"/>
-        <v>-44</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B117" s="1">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="C117" s="1">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="D117" s="1">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H117" s="1">
-        <f t="shared" si="29"/>
-        <v>96</v>
+        <f t="shared" si="27"/>
+        <v>13</v>
       </c>
       <c r="I117">
         <f t="shared" si="17"/>
-        <v>-20</v>
+        <v>1</v>
       </c>
       <c r="J117">
         <f t="shared" si="18"/>
-        <v>-76</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B118" s="1">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="C118" s="1">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="D118" s="1">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H118" s="1">
-        <f t="shared" si="29"/>
-        <v>109</v>
+        <f t="shared" si="27"/>
+        <v>14</v>
       </c>
       <c r="I118">
         <f t="shared" si="17"/>
-        <v>-24</v>
+        <v>-1</v>
       </c>
       <c r="J118">
         <f t="shared" si="18"/>
-        <v>-85</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B119" s="1">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="C119" s="1">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="D119" s="1">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1</v>
       </c>
       <c r="H119" s="1">
-        <f>C119</f>
-        <v>132</v>
+        <f t="shared" si="27"/>
+        <v>16</v>
       </c>
       <c r="I119">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119">
         <f t="shared" si="18"/>
-        <v>-132</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B120" s="1">
-        <v>2012</v>
-      </c>
-      <c r="C120" s="1">
-        <v>143</v>
-      </c>
-      <c r="D120" s="1">
-        <v>148</v>
-      </c>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="H120" s="1">
-        <f t="shared" ref="H120:H126" si="30">C120</f>
-        <v>143</v>
-      </c>
-      <c r="I120">
-        <f t="shared" si="17"/>
-        <v>-5</v>
-      </c>
-      <c r="J120">
-        <f t="shared" si="18"/>
-        <v>-143</v>
+        <v>2019</v>
+      </c>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B121" s="1">
-        <v>2013</v>
-      </c>
-      <c r="C121" s="1">
-        <v>115</v>
-      </c>
-      <c r="D121" s="1">
-        <v>112</v>
-      </c>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="H121" s="1">
-        <f t="shared" si="30"/>
-        <v>115</v>
-      </c>
       <c r="I121">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J121">
         <f t="shared" si="18"/>
-        <v>-115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -4164,31 +4036,31 @@
         <v>11</v>
       </c>
       <c r="B122" s="1">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="C122" s="1">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="D122" s="1">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1">
-        <f t="shared" si="28"/>
-        <v>1</v>
+        <f>IF(C122=D122,1,0)</f>
+        <v>0</v>
       </c>
       <c r="H122" s="1">
-        <f t="shared" si="30"/>
-        <v>112</v>
+        <f>D122</f>
+        <v>101</v>
       </c>
       <c r="I122">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="J122">
         <f t="shared" si="18"/>
-        <v>-112</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -4196,31 +4068,31 @@
         <v>11</v>
       </c>
       <c r="B123" s="1">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="C123" s="1">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="D123" s="1">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="G123:G134" si="28">IF(C123=D123,1,0)</f>
         <v>0</v>
       </c>
       <c r="H123" s="1">
-        <f t="shared" si="30"/>
-        <v>122</v>
+        <f t="shared" ref="H123:H126" si="29">D123</f>
+        <v>100</v>
       </c>
       <c r="I123">
         <f t="shared" si="17"/>
-        <v>-3</v>
+        <v>-42</v>
       </c>
       <c r="J123">
         <f t="shared" si="18"/>
-        <v>-122</v>
+        <v>-58</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -4228,31 +4100,31 @@
         <v>11</v>
       </c>
       <c r="B124" s="1">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="C124" s="1">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D124" s="1">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124" s="1">
-        <f t="shared" si="30"/>
-        <v>95</v>
+        <f t="shared" si="29"/>
+        <v>103</v>
       </c>
       <c r="I124">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>-59</v>
       </c>
       <c r="J124">
         <f t="shared" si="18"/>
-        <v>-95</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -4260,31 +4132,31 @@
         <v>11</v>
       </c>
       <c r="B125" s="1">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="C125" s="1">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="D125" s="1">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125" s="1">
-        <f t="shared" si="30"/>
-        <v>107</v>
+        <f t="shared" si="29"/>
+        <v>96</v>
       </c>
       <c r="I125">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="J125">
         <f t="shared" si="18"/>
-        <v>-107</v>
+        <v>-76</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -4292,244 +4164,263 @@
         <v>11</v>
       </c>
       <c r="B126" s="1">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="C126" s="1">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="D126" s="1">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126" s="1">
-        <f t="shared" si="30"/>
-        <v>107</v>
+        <f t="shared" si="29"/>
+        <v>109</v>
       </c>
       <c r="I126">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="J126">
         <f t="shared" si="18"/>
-        <v>-107</v>
+        <v>-85</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D127">
-        <v>79</v>
+      <c r="A127" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C127" s="1">
+        <v>132</v>
+      </c>
+      <c r="D127" s="1">
+        <v>131</v>
+      </c>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H127" s="1">
+        <f>C127</f>
+        <v>132</v>
       </c>
       <c r="I127">
         <f t="shared" si="17"/>
-        <v>-79</v>
+        <v>1</v>
       </c>
       <c r="J127">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-132</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B128" s="1">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="C128" s="1">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="D128" s="1">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1">
-        <f>IF(C128=D128,1,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H128" s="1">
-        <f>D128</f>
-        <v>217</v>
+        <f t="shared" ref="H128:H134" si="30">C128</f>
+        <v>143</v>
       </c>
       <c r="I128">
         <f t="shared" si="17"/>
-        <v>-186</v>
+        <v>-5</v>
       </c>
       <c r="J128">
         <f t="shared" si="18"/>
-        <v>-31</v>
+        <v>-143</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B129" s="1">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="C129" s="1">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="D129" s="1">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1">
-        <f t="shared" ref="G129:G140" si="31">IF(C129=D129,1,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H129" s="1">
-        <f t="shared" ref="H129:H132" si="32">D129</f>
-        <v>193</v>
+        <f t="shared" si="30"/>
+        <v>115</v>
       </c>
       <c r="I129">
         <f t="shared" si="17"/>
-        <v>-163</v>
+        <v>3</v>
       </c>
       <c r="J129">
         <f t="shared" si="18"/>
-        <v>-30</v>
+        <v>-115</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B130" s="1">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="C130" s="1">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="D130" s="1">
-        <v>257</v>
+        <v>112</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
       <c r="H130" s="1">
-        <f t="shared" si="32"/>
-        <v>257</v>
+        <f t="shared" si="30"/>
+        <v>112</v>
       </c>
       <c r="I130">
-        <f>C130-D130</f>
-        <v>-245</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="J130">
         <f t="shared" si="18"/>
-        <v>-12</v>
+        <v>-112</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B131" s="1">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="C131" s="1">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="D131" s="1">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H131" s="1">
-        <f t="shared" si="32"/>
-        <v>182</v>
+        <f t="shared" si="30"/>
+        <v>122</v>
       </c>
       <c r="I131">
-        <f t="shared" ref="I131:I166" si="33">C131-D131</f>
-        <v>-157</v>
+        <f t="shared" si="17"/>
+        <v>-3</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J166" si="34">F131-C131</f>
-        <v>-25</v>
+        <f t="shared" si="18"/>
+        <v>-122</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B132" s="1">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="C132" s="1">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D132" s="1">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
       <c r="H132" s="1">
-        <f t="shared" si="32"/>
-        <v>227</v>
+        <f t="shared" si="30"/>
+        <v>95</v>
       </c>
       <c r="I132">
-        <f t="shared" si="33"/>
-        <v>-159</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="J132">
-        <f t="shared" si="34"/>
-        <v>-68</v>
+        <f t="shared" si="18"/>
+        <v>-95</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B133" s="1">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="C133" s="1">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="D133" s="1">
-        <v>209</v>
+        <v>107</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
       <c r="H133" s="1">
-        <f>C133</f>
-        <v>203</v>
+        <f t="shared" si="30"/>
+        <v>107</v>
       </c>
       <c r="I133">
-        <f t="shared" si="33"/>
-        <v>-6</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="J133">
-        <f t="shared" si="34"/>
-        <v>-203</v>
+        <f t="shared" si="18"/>
+        <v>-107</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B134" s="1">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C134" s="1">
         <v>107</v>
@@ -4540,84 +4431,49 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="H134" s="1">
-        <f t="shared" ref="H134:H140" si="35">C134</f>
+        <f t="shared" si="30"/>
         <v>107</v>
       </c>
       <c r="I134">
-        <f t="shared" si="33"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J134">
-        <f t="shared" si="34"/>
+        <f t="shared" si="18"/>
         <v>-107</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B135" s="1">
-        <v>2013</v>
-      </c>
-      <c r="C135" s="1">
-        <v>71</v>
-      </c>
-      <c r="D135" s="1">
-        <v>71</v>
-      </c>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="H135" s="1">
-        <f t="shared" si="35"/>
-        <v>71</v>
-      </c>
-      <c r="I135">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="J135">
-        <f t="shared" si="34"/>
-        <v>-71</v>
+        <v>2019</v>
+      </c>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3">
+        <v>103</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B136" s="1">
-        <v>2014</v>
-      </c>
-      <c r="C136" s="1">
-        <v>40</v>
-      </c>
-      <c r="D136" s="1">
-        <v>40</v>
-      </c>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="H136" s="1">
-        <f t="shared" si="35"/>
-        <v>40</v>
+      <c r="D136">
+        <v>79</v>
       </c>
       <c r="I136">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>-79</v>
       </c>
       <c r="J136">
-        <f t="shared" si="34"/>
-        <v>-40</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -4625,31 +4481,31 @@
         <v>12</v>
       </c>
       <c r="B137" s="1">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="C137" s="1">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D137" s="1">
-        <v>57</v>
+        <v>217</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
+        <f>IF(C137=D137,1,0)</f>
+        <v>0</v>
       </c>
       <c r="H137" s="1">
-        <f t="shared" si="35"/>
-        <v>57</v>
+        <f>D137</f>
+        <v>217</v>
       </c>
       <c r="I137">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>-186</v>
       </c>
       <c r="J137">
-        <f t="shared" si="34"/>
-        <v>-57</v>
+        <f t="shared" si="18"/>
+        <v>-31</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -4657,31 +4513,31 @@
         <v>12</v>
       </c>
       <c r="B138" s="1">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="C138" s="1">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D138" s="1">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
+        <f t="shared" ref="G138:G149" si="31">IF(C138=D138,1,0)</f>
+        <v>0</v>
       </c>
       <c r="H138" s="1">
-        <f t="shared" si="35"/>
-        <v>59</v>
+        <f t="shared" ref="H138:H141" si="32">D138</f>
+        <v>193</v>
       </c>
       <c r="I138">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>-163</v>
       </c>
       <c r="J138">
-        <f t="shared" si="34"/>
-        <v>-59</v>
+        <f t="shared" si="18"/>
+        <v>-30</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -4689,13 +4545,13 @@
         <v>12</v>
       </c>
       <c r="B139" s="1">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="C139" s="1">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D139" s="1">
-        <v>52</v>
+        <v>257</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -4704,16 +4560,16 @@
         <v>0</v>
       </c>
       <c r="H139" s="1">
-        <f t="shared" si="35"/>
-        <v>55</v>
+        <f t="shared" si="32"/>
+        <v>257</v>
       </c>
       <c r="I139">
-        <f t="shared" si="33"/>
-        <v>3</v>
+        <f>C139-D139</f>
+        <v>-245</v>
       </c>
       <c r="J139">
-        <f t="shared" si="34"/>
-        <v>-55</v>
+        <f t="shared" si="18"/>
+        <v>-12</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -4721,13 +4577,13 @@
         <v>12</v>
       </c>
       <c r="B140" s="1">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="C140" s="1">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D140" s="1">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -4736,210 +4592,232 @@
         <v>0</v>
       </c>
       <c r="H140" s="1">
-        <f t="shared" si="35"/>
-        <v>54</v>
+        <f t="shared" si="32"/>
+        <v>182</v>
       </c>
       <c r="I140">
-        <f t="shared" si="33"/>
-        <v>1</v>
+        <f t="shared" ref="I140:I177" si="33">C140-D140</f>
+        <v>-157</v>
       </c>
       <c r="J140">
-        <f t="shared" si="34"/>
-        <v>-54</v>
+        <f t="shared" ref="J140:J177" si="34">F140-C140</f>
+        <v>-25</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C141" s="1">
+        <v>68</v>
+      </c>
+      <c r="D141" s="1">
+        <v>227</v>
+      </c>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="H141" s="1">
+        <f t="shared" si="32"/>
+        <v>227</v>
+      </c>
       <c r="I141">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>-159</v>
       </c>
       <c r="J141">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>-68</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B142" s="1">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="C142" s="1">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="D142" s="1">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1">
-        <f>IF(C142=D142,1,0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H142" s="1">
-        <f>D142</f>
-        <v>3</v>
+        <f>C142</f>
+        <v>203</v>
       </c>
       <c r="I142">
         <f t="shared" si="33"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="J142">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>-203</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B143" s="1">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="C143" s="1">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D143" s="1">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1">
-        <f t="shared" ref="G143:G154" si="36">IF(C143=D143,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>1</v>
       </c>
       <c r="H143" s="1">
-        <f t="shared" ref="H143:H146" si="37">D143</f>
-        <v>4</v>
+        <f t="shared" ref="H143:H149" si="35">C143</f>
+        <v>107</v>
       </c>
       <c r="I143">
         <f t="shared" si="33"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J143">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>-107</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B144" s="1">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="C144" s="1">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D144" s="1">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>1</v>
       </c>
       <c r="H144" s="1">
-        <f t="shared" si="37"/>
-        <v>3</v>
+        <f t="shared" si="35"/>
+        <v>71</v>
       </c>
       <c r="I144">
         <f t="shared" si="33"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J144">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>-71</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B145" s="1">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="C145" s="1">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D145" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>1</v>
       </c>
       <c r="H145" s="1">
-        <f t="shared" si="37"/>
-        <v>3</v>
+        <f t="shared" si="35"/>
+        <v>40</v>
       </c>
       <c r="I145">
         <f t="shared" si="33"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J145">
         <f t="shared" si="34"/>
-        <v>-2</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B146" s="1">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="C146" s="1">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D146" s="1">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>1</v>
       </c>
       <c r="H146" s="1">
-        <f t="shared" si="37"/>
-        <v>2</v>
+        <f t="shared" si="35"/>
+        <v>57</v>
       </c>
       <c r="I146">
         <f t="shared" si="33"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J146">
         <f t="shared" si="34"/>
-        <v>-1</v>
+        <v>-57</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B147" s="1">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="C147" s="1">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="D147" s="1">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="H147" s="1">
-        <f>C147</f>
-        <v>3</v>
+        <f t="shared" si="35"/>
+        <v>59</v>
       </c>
       <c r="I147">
         <f t="shared" si="33"/>
@@ -4947,135 +4825,97 @@
       </c>
       <c r="J147">
         <f t="shared" si="34"/>
-        <v>-3</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B148" s="1">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C148" s="1">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D148" s="1">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1">
-        <f t="shared" si="36"/>
-        <v>1</v>
+        <f t="shared" si="31"/>
+        <v>0</v>
       </c>
       <c r="H148" s="1">
-        <f t="shared" ref="H148:H154" si="38">C148</f>
-        <v>1</v>
+        <f t="shared" si="35"/>
+        <v>55</v>
       </c>
       <c r="I148">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J148">
         <f t="shared" si="34"/>
-        <v>-1</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B149" s="1">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="C149" s="1">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="D149" s="1">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1">
-        <f t="shared" si="36"/>
-        <v>1</v>
+        <f t="shared" si="31"/>
+        <v>0</v>
       </c>
       <c r="H149" s="1">
-        <f t="shared" si="38"/>
-        <v>3</v>
+        <f t="shared" si="35"/>
+        <v>54</v>
       </c>
       <c r="I149">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149">
         <f t="shared" si="34"/>
-        <v>-3</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B150" s="1">
-        <v>2014</v>
-      </c>
-      <c r="C150" s="1">
-        <v>3</v>
-      </c>
-      <c r="D150" s="1">
-        <v>3</v>
-      </c>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1">
-        <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="H150" s="1">
-        <f t="shared" si="38"/>
-        <v>3</v>
-      </c>
-      <c r="I150">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="J150">
-        <f t="shared" si="34"/>
-        <v>-3</v>
+        <v>2019</v>
+      </c>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3">
+        <v>44</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B151" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C151" s="1">
-        <v>2</v>
-      </c>
-      <c r="D151" s="1">
-        <v>2</v>
-      </c>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1">
-        <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="H151" s="1">
-        <f t="shared" si="38"/>
-        <v>2</v>
-      </c>
       <c r="I151">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="J151">
         <f t="shared" si="34"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -5083,31 +4923,31 @@
         <v>13</v>
       </c>
       <c r="B152" s="1">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="C152" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D152" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1">
-        <f t="shared" si="36"/>
-        <v>1</v>
+        <f>IF(C152=D152,1,0)</f>
+        <v>0</v>
       </c>
       <c r="H152" s="1">
-        <f t="shared" si="38"/>
-        <v>6</v>
+        <f>D152</f>
+        <v>3</v>
       </c>
       <c r="I152">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="J152">
         <f t="shared" si="34"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -5115,31 +4955,31 @@
         <v>13</v>
       </c>
       <c r="B153" s="1">
-        <v>2017</v>
+        <v>2007</v>
       </c>
       <c r="C153" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D153" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1">
-        <f t="shared" si="36"/>
-        <v>1</v>
+        <f t="shared" ref="G153:G164" si="36">IF(C153=D153,1,0)</f>
+        <v>0</v>
       </c>
       <c r="H153" s="1">
-        <f t="shared" si="38"/>
-        <v>9</v>
+        <f t="shared" ref="H153:H156" si="37">D153</f>
+        <v>4</v>
       </c>
       <c r="I153">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="J153">
         <f t="shared" si="34"/>
-        <v>-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -5147,97 +4987,119 @@
         <v>13</v>
       </c>
       <c r="B154" s="1">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="C154" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D154" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154" s="1">
-        <f t="shared" si="38"/>
-        <v>9</v>
+        <f t="shared" si="37"/>
+        <v>3</v>
       </c>
       <c r="I154">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="J154">
         <f t="shared" si="34"/>
-        <v>-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155" s="1">
+        <v>2009</v>
+      </c>
+      <c r="C155" s="1">
+        <v>2</v>
+      </c>
+      <c r="D155" s="1">
+        <v>3</v>
+      </c>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H155" s="1">
+        <f t="shared" si="37"/>
+        <v>3</v>
+      </c>
       <c r="I155">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J155">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B156" s="1">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="C156" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D156" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1">
-        <f>IF(C156=D156,1,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="H156" s="1">
-        <f>D157</f>
-        <v>1</v>
+        <f t="shared" si="37"/>
+        <v>2</v>
       </c>
       <c r="I156">
         <f t="shared" si="33"/>
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="J156">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B157" s="1">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C157" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D157" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1">
-        <f t="shared" ref="G157:G166" si="39">IF(C157=D157,1,0)</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="H157" s="1">
-        <f>D158</f>
-        <v>4</v>
+        <f>C157</f>
+        <v>3</v>
       </c>
       <c r="I157">
         <f t="shared" si="33"/>
@@ -5245,63 +5107,63 @@
       </c>
       <c r="J157">
         <f t="shared" si="34"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B158" s="1">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="C158" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D158" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1">
-        <f t="shared" si="39"/>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>1</v>
       </c>
       <c r="H158" s="1">
-        <f>D159</f>
-        <v>5</v>
+        <f t="shared" ref="H158:H164" si="38">C158</f>
+        <v>1</v>
       </c>
       <c r="I158">
         <f t="shared" si="33"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J158">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B159" s="1">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="C159" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D159" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="H159" s="1">
-        <f>C159</f>
-        <v>5</v>
+        <f t="shared" si="38"/>
+        <v>3</v>
       </c>
       <c r="I159">
         <f t="shared" si="33"/>
@@ -5309,15 +5171,15 @@
       </c>
       <c r="J159">
         <f t="shared" si="34"/>
-        <v>-5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B160" s="1">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C160" s="1">
         <v>3</v>
@@ -5328,11 +5190,11 @@
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="H160" s="1">
-        <f t="shared" ref="H160:H166" si="40">C161</f>
+        <f t="shared" si="38"/>
         <v>3</v>
       </c>
       <c r="I160">
@@ -5346,26 +5208,26 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B161" s="1">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="C161" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D161" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="H161" s="1">
-        <f t="shared" si="40"/>
-        <v>8</v>
+        <f t="shared" si="38"/>
+        <v>2</v>
       </c>
       <c r="I161">
         <f t="shared" si="33"/>
@@ -5373,31 +5235,31 @@
       </c>
       <c r="J161">
         <f t="shared" si="34"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B162" s="1">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="C162" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D162" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="H162" s="1">
-        <f t="shared" si="40"/>
-        <v>2</v>
+        <f t="shared" si="38"/>
+        <v>6</v>
       </c>
       <c r="I162">
         <f t="shared" si="33"/>
@@ -5405,31 +5267,31 @@
       </c>
       <c r="J162">
         <f t="shared" si="34"/>
-        <v>-8</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B163" s="1">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C163" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D163" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="H163" s="1">
-        <f t="shared" si="40"/>
-        <v>4</v>
+        <f t="shared" si="38"/>
+        <v>9</v>
       </c>
       <c r="I163">
         <f t="shared" si="33"/>
@@ -5437,108 +5299,433 @@
       </c>
       <c r="J163">
         <f t="shared" si="34"/>
-        <v>-2</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B164" s="1">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C164" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D164" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="H164" s="1">
+        <f t="shared" si="38"/>
+        <v>9</v>
+      </c>
+      <c r="I164">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <f t="shared" si="34"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I166">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B167" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C167" s="1">
+        <v>0</v>
+      </c>
+      <c r="D167" s="1">
+        <v>4</v>
+      </c>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1">
+        <f>IF(C167=D167,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H167" s="1">
+        <f>D168</f>
+        <v>1</v>
+      </c>
+      <c r="I167">
+        <f t="shared" si="33"/>
+        <v>-4</v>
+      </c>
+      <c r="J167">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B168" s="1">
+        <v>2009</v>
+      </c>
+      <c r="C168" s="1">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1">
+        <v>1</v>
+      </c>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1">
+        <f t="shared" ref="G168:G177" si="39">IF(C168=D168,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H168" s="1">
+        <f>D169</f>
+        <v>4</v>
+      </c>
+      <c r="I168">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B169" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C169" s="1">
+        <v>0</v>
+      </c>
+      <c r="D169" s="1">
+        <v>4</v>
+      </c>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="H164" s="1">
+      <c r="H169" s="1">
+        <f>D170</f>
+        <v>5</v>
+      </c>
+      <c r="I169">
+        <f t="shared" si="33"/>
+        <v>-4</v>
+      </c>
+      <c r="J169">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B170" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C170" s="1">
+        <v>5</v>
+      </c>
+      <c r="D170" s="1">
+        <v>5</v>
+      </c>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="H170" s="1">
+        <f>C170</f>
+        <v>5</v>
+      </c>
+      <c r="I170">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <f t="shared" si="34"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B171" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C171" s="1">
+        <v>3</v>
+      </c>
+      <c r="D171" s="1">
+        <v>3</v>
+      </c>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="H171" s="1">
+        <f t="shared" ref="H171:H177" si="40">C172</f>
+        <v>3</v>
+      </c>
+      <c r="I171">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <f t="shared" si="34"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B172" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C172" s="1">
+        <v>3</v>
+      </c>
+      <c r="D172" s="1">
+        <v>3</v>
+      </c>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="H172" s="1">
+        <f t="shared" si="40"/>
+        <v>8</v>
+      </c>
+      <c r="I172">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <f t="shared" si="34"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B173" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C173" s="1">
+        <v>8</v>
+      </c>
+      <c r="D173" s="1">
+        <v>8</v>
+      </c>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="H173" s="1">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="I173">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <f t="shared" si="34"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B174" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C174" s="1">
+        <v>2</v>
+      </c>
+      <c r="D174" s="1">
+        <v>2</v>
+      </c>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="H174" s="1">
+        <f t="shared" si="40"/>
+        <v>4</v>
+      </c>
+      <c r="I174">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <f t="shared" si="34"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B175" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C175" s="1">
+        <v>4</v>
+      </c>
+      <c r="D175" s="1">
+        <v>5</v>
+      </c>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="H175" s="1">
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="I164">
+      <c r="I175">
         <f t="shared" si="33"/>
         <v>-1</v>
       </c>
-      <c r="J164">
+      <c r="J175">
         <f t="shared" si="34"/>
         <v>-4</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B176" s="1">
         <v>2017</v>
       </c>
-      <c r="C165" s="1">
+      <c r="C176" s="1">
         <v>3</v>
       </c>
-      <c r="D165" s="1">
+      <c r="D176" s="1">
         <v>6</v>
       </c>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1">
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="H165" s="1">
+      <c r="H176" s="1">
         <f t="shared" si="40"/>
         <v>9</v>
       </c>
-      <c r="I165">
+      <c r="I176">
         <f t="shared" si="33"/>
         <v>-3</v>
       </c>
-      <c r="J165">
+      <c r="J176">
         <f t="shared" si="34"/>
         <v>-3</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B177" s="1">
         <v>2018</v>
       </c>
-      <c r="C166" s="1">
+      <c r="C177" s="1">
         <v>9</v>
       </c>
-      <c r="D166" s="1">
+      <c r="D177" s="1">
         <v>8</v>
       </c>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1">
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="H166" s="1">
+      <c r="H177" s="1">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="I166">
+      <c r="I177">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
-      <c r="J166">
+      <c r="J177">
         <f t="shared" si="34"/>
         <v>-9</v>
       </c>
     </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B178" s="1">
+        <v>2019</v>
+      </c>
+      <c r="H178">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H1"/>
-  <conditionalFormatting sqref="G2:G14">
+  <conditionalFormatting sqref="G2:G15">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>

--- a/Registro_de_Acidentes.xlsx
+++ b/Registro_de_Acidentes.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$C$166</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="15">
   <si>
     <t>EFC</t>
   </si>
@@ -48,9 +51,6 @@
   </si>
   <si>
     <t>MRS</t>
-  </si>
-  <si>
-    <t>RMC</t>
   </si>
   <si>
     <t>RMN</t>
@@ -107,8 +107,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,23 +395,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C174"/>
+  <dimension ref="A1:C166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A160" sqref="A160:XFD160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -504,7 +510,7 @@
         <v>2012</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -515,7 +521,7 @@
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -526,7 +532,7 @@
         <v>2012</v>
       </c>
       <c r="C12">
-        <v>68</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -537,67 +543,67 @@
         <v>2012</v>
       </c>
       <c r="C13">
-        <v>139</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C14">
-        <v>183</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15">
         <v>2013</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16">
         <v>2013</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17">
         <v>2013</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <v>2013</v>
       </c>
       <c r="C18">
-        <v>215</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19">
         <v>2013</v>
@@ -608,1710 +614,1623 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>2013</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <v>2013</v>
       </c>
       <c r="C21">
-        <v>71</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22">
         <v>2013</v>
       </c>
       <c r="C22">
-        <v>112</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B23">
         <v>2013</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B24">
         <v>2013</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>2013</v>
       </c>
       <c r="C25">
-        <v>45</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C26">
-        <v>127</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B27">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C27">
-        <v>208</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B28">
         <v>2014</v>
       </c>
       <c r="C28">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29">
         <v>2014</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B30">
         <v>2014</v>
       </c>
       <c r="C30">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B31">
         <v>2014</v>
       </c>
       <c r="C31">
-        <v>236</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B32">
         <v>2014</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B33">
         <v>2014</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B34">
         <v>2014</v>
       </c>
       <c r="C34">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>2014</v>
       </c>
       <c r="C35">
-        <v>112</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B36">
         <v>2014</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>2014</v>
       </c>
       <c r="C37">
-        <v>21</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B38">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C38">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B39">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C39">
-        <v>104</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B40">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C40">
-        <v>194</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B41">
         <v>2015</v>
       </c>
       <c r="C41">
-        <v>35</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B42">
         <v>2015</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B43">
         <v>2015</v>
       </c>
       <c r="C43">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B44">
         <v>2015</v>
       </c>
       <c r="C44">
-        <v>184</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B45">
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B46">
         <v>2015</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B47">
         <v>2015</v>
       </c>
       <c r="C47">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B48">
         <v>2015</v>
       </c>
       <c r="C48">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B49">
         <v>2015</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B50">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C50">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B51">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C51">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B52">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C52">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B53">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C53">
-        <v>287</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B54">
         <v>2016</v>
       </c>
       <c r="C54">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B55">
         <v>2016</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B56">
         <v>2016</v>
       </c>
       <c r="C56">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B57">
         <v>2016</v>
       </c>
       <c r="C57">
-        <v>168</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B58">
         <v>2016</v>
       </c>
       <c r="C58">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B59">
         <v>2016</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B60">
         <v>2016</v>
       </c>
       <c r="C60">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B61">
         <v>2016</v>
       </c>
       <c r="C61">
-        <v>95</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B62">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B63">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C63">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B64">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C64">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B65">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C65">
-        <v>80</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B66">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C66">
-        <v>179</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B67">
         <v>2017</v>
       </c>
       <c r="C67">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B68">
         <v>2017</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B69">
         <v>2017</v>
       </c>
       <c r="C69">
-        <v>26</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B70">
         <v>2017</v>
       </c>
       <c r="C70">
-        <v>187</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B71">
         <v>2017</v>
       </c>
       <c r="C71">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B72">
         <v>2017</v>
       </c>
       <c r="C72">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B73">
         <v>2017</v>
       </c>
       <c r="C73">
-        <v>54</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B74">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C74">
-        <v>107</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B75">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B76">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C76">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B77">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C77">
-        <v>27</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B78">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C78">
-        <v>74</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B79">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C79">
-        <v>201</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B80">
         <v>2018</v>
       </c>
       <c r="C80">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B81">
         <v>2018</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B82">
         <v>2018</v>
       </c>
       <c r="C82">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B83">
         <v>2018</v>
       </c>
       <c r="C83">
-        <v>192</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B84">
         <v>2018</v>
       </c>
       <c r="C84">
-        <v>8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B85">
         <v>2018</v>
       </c>
       <c r="C85">
-        <v>9</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B86">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C86">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B87">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C87">
-        <v>107</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B88">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B89">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C89">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B90">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C90">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B91">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C91">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B92">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C92">
-        <v>217</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B93">
         <v>2019</v>
       </c>
       <c r="C93">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B94">
         <v>2019</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B95">
         <v>2019</v>
       </c>
       <c r="C95">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B96">
         <v>2019</v>
       </c>
       <c r="C96">
-        <v>137</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B97">
         <v>2019</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>276</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>2011</v>
+      </c>
+      <c r="C98" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99">
+        <v>2011</v>
+      </c>
+      <c r="C99" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100">
+        <v>2011</v>
+      </c>
+      <c r="C100" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>2011</v>
+      </c>
+      <c r="C101" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B98">
-        <v>2019</v>
-      </c>
-      <c r="C98">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="B102">
+        <v>2011</v>
+      </c>
+      <c r="C102" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B99">
-        <v>2019</v>
-      </c>
-      <c r="C99">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="B103">
+        <v>2011</v>
+      </c>
+      <c r="C103" s="2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B100">
-        <v>2019</v>
-      </c>
-      <c r="C100">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>8</v>
-      </c>
-      <c r="B101">
-        <v>2019</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>9</v>
-      </c>
-      <c r="B102">
-        <v>2019</v>
-      </c>
-      <c r="C102">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>10</v>
-      </c>
-      <c r="B103">
-        <v>2019</v>
-      </c>
-      <c r="C103">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>11</v>
-      </c>
       <c r="B104">
-        <v>2019</v>
-      </c>
-      <c r="C104">
-        <v>102</v>
+        <v>2011</v>
+      </c>
+      <c r="C104" s="2">
+        <v>131</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B105">
-        <v>2019</v>
-      </c>
-      <c r="C105">
-        <v>276</v>
+        <v>2011</v>
+      </c>
+      <c r="C105" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>0</v>
+      <c r="A106" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B106">
-        <v>2006</v>
-      </c>
-      <c r="C106">
-        <v>61</v>
+        <v>2011</v>
+      </c>
+      <c r="C106" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>0</v>
+      <c r="A107" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B107">
-        <v>2007</v>
-      </c>
-      <c r="C107">
-        <v>40</v>
+        <v>2011</v>
+      </c>
+      <c r="C107" s="2">
+        <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>0</v>
+      <c r="A108" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B108">
-        <v>2008</v>
-      </c>
-      <c r="C108">
-        <v>48</v>
+        <v>2011</v>
+      </c>
+      <c r="C108" s="2">
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>0</v>
+      <c r="A109" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B109">
-        <v>2009</v>
-      </c>
-      <c r="C109">
-        <v>34</v>
+        <v>2011</v>
+      </c>
+      <c r="C109" s="2">
+        <v>194</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B110">
         <v>2010</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="2">
         <v>34</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>0</v>
+      <c r="A111" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B111">
-        <v>2011</v>
-      </c>
-      <c r="C111">
-        <v>34</v>
+        <v>2010</v>
+      </c>
+      <c r="C111" s="2">
+        <v>45</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112">
+        <v>2010</v>
+      </c>
+      <c r="C112" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B112">
-        <v>2007</v>
-      </c>
-      <c r="C112">
+      <c r="B113">
+        <v>2010</v>
+      </c>
+      <c r="C113" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114">
+        <v>2010</v>
+      </c>
+      <c r="C114" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>1</v>
-      </c>
-      <c r="B113">
-        <v>2008</v>
-      </c>
-      <c r="C113">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>1</v>
-      </c>
-      <c r="B114">
-        <v>2009</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-    </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>1</v>
+      <c r="A115" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B115">
         <v>2010</v>
       </c>
-      <c r="C115">
-        <v>1</v>
+      <c r="C115" s="2">
+        <v>227</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>1</v>
+      <c r="A116" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B116">
-        <v>2011</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
+        <v>2010</v>
+      </c>
+      <c r="C116" s="2">
+        <v>109</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B117">
-        <v>2006</v>
-      </c>
-      <c r="C117">
-        <v>69</v>
+        <v>2010</v>
+      </c>
+      <c r="C117" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>2</v>
+      <c r="A118" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B118">
-        <v>2007</v>
-      </c>
-      <c r="C118">
-        <v>54</v>
+        <v>2010</v>
+      </c>
+      <c r="C118" s="2">
+        <v>29</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>2</v>
+      <c r="A119" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B119">
-        <v>2008</v>
-      </c>
-      <c r="C119">
-        <v>38</v>
+        <v>2010</v>
+      </c>
+      <c r="C119" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>2</v>
+      <c r="A120" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B120">
-        <v>2009</v>
-      </c>
-      <c r="C120">
-        <v>35</v>
+        <v>2010</v>
+      </c>
+      <c r="C120" s="2">
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>2</v>
+      <c r="A121" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B121">
         <v>2010</v>
       </c>
-      <c r="C121">
-        <v>45</v>
+      <c r="C121" s="2">
+        <v>239</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>2009</v>
+      </c>
+      <c r="C122" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B122">
-        <v>2011</v>
-      </c>
-      <c r="C122">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>3</v>
-      </c>
       <c r="B123">
-        <v>2006</v>
-      </c>
-      <c r="C123">
-        <v>224</v>
+        <v>2009</v>
+      </c>
+      <c r="C123" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B124">
-        <v>2007</v>
-      </c>
-      <c r="C124">
-        <v>191</v>
+        <v>2009</v>
+      </c>
+      <c r="C124" s="2">
+        <v>215</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>3</v>
+      <c r="A125" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B125">
-        <v>2008</v>
-      </c>
-      <c r="C125">
-        <v>188</v>
+        <v>2009</v>
+      </c>
+      <c r="C125" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>3</v>
+      <c r="A126" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B126">
         <v>2009</v>
       </c>
-      <c r="C126">
-        <v>215</v>
+      <c r="C126" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>3</v>
+      <c r="A127" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B127">
-        <v>2010</v>
-      </c>
-      <c r="C127">
-        <v>237</v>
+        <v>2009</v>
+      </c>
+      <c r="C127" s="2">
+        <v>182</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>3</v>
+      <c r="A128" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B128">
-        <v>2011</v>
-      </c>
-      <c r="C128">
-        <v>199</v>
+        <v>2009</v>
+      </c>
+      <c r="C128" s="2">
+        <v>96</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B129">
-        <v>2006</v>
-      </c>
-      <c r="C129">
-        <v>195</v>
+        <v>2009</v>
+      </c>
+      <c r="C129" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>12</v>
+      <c r="A130" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B130">
-        <v>2007</v>
-      </c>
-      <c r="C130">
-        <v>145</v>
+        <v>2009</v>
+      </c>
+      <c r="C130" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>12</v>
+      <c r="A131" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B131">
-        <v>2008</v>
-      </c>
-      <c r="C131">
-        <v>161</v>
+        <v>2009</v>
+      </c>
+      <c r="C131" s="2">
+        <v>51</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>12</v>
+      <c r="A132" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B132">
         <v>2009</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133">
+        <v>2009</v>
+      </c>
+      <c r="C133" s="2">
         <v>186</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>12</v>
-      </c>
-      <c r="B133">
-        <v>2010</v>
-      </c>
-      <c r="C133">
-        <v>239</v>
-      </c>
-    </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>12</v>
+      <c r="A134" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B134">
-        <v>2011</v>
-      </c>
-      <c r="C134">
-        <v>195</v>
+        <v>2008</v>
+      </c>
+      <c r="C134" s="2">
+        <v>48</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>11</v>
+      <c r="A135" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B135">
-        <v>2006</v>
-      </c>
-      <c r="C135">
-        <v>145</v>
+        <v>2008</v>
+      </c>
+      <c r="C135" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>11</v>
+      <c r="A136" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B136">
-        <v>2007</v>
-      </c>
-      <c r="C136">
-        <v>139</v>
+        <v>2008</v>
+      </c>
+      <c r="C136" s="2">
+        <v>188</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>11</v>
+      <c r="A137" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B137">
         <v>2008</v>
       </c>
-      <c r="C137">
-        <v>149</v>
+      <c r="C137" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>11</v>
+      <c r="A138" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B138">
-        <v>2009</v>
-      </c>
-      <c r="C138">
-        <v>129</v>
+        <v>2008</v>
+      </c>
+      <c r="C138" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>11</v>
+      <c r="A139" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B139">
-        <v>2010</v>
-      </c>
-      <c r="C139">
-        <v>138</v>
+        <v>2008</v>
+      </c>
+      <c r="C139" s="2">
+        <v>257</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>11</v>
+      <c r="A140" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B140">
-        <v>2011</v>
-      </c>
-      <c r="C140">
-        <v>136</v>
+        <v>2008</v>
+      </c>
+      <c r="C140" s="2">
+        <v>103</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B141">
-        <v>2006</v>
-      </c>
-      <c r="C141">
-        <v>452</v>
+        <v>2008</v>
+      </c>
+      <c r="C141" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>10</v>
+      <c r="A142" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B142">
-        <v>2007</v>
-      </c>
-      <c r="C142">
-        <v>133</v>
+        <v>2008</v>
+      </c>
+      <c r="C142" s="2">
+        <v>28</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>10</v>
+      <c r="A143" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B143">
         <v>2008</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="2">
         <v>83</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B144">
-        <v>2009</v>
-      </c>
-      <c r="C144">
-        <v>51</v>
+        <v>2008</v>
+      </c>
+      <c r="C144" s="2">
+        <v>149</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>10</v>
+      <c r="A145" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B145">
-        <v>2010</v>
-      </c>
-      <c r="C145">
-        <v>71</v>
+        <v>2008</v>
+      </c>
+      <c r="C145" s="2">
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>10</v>
+      <c r="A146" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B146">
-        <v>2011</v>
-      </c>
-      <c r="C146">
-        <v>68</v>
+        <v>2007</v>
+      </c>
+      <c r="C146" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>9</v>
+      <c r="A147" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B147">
-        <v>2006</v>
-      </c>
-      <c r="C147">
-        <v>171</v>
+        <v>2007</v>
+      </c>
+      <c r="C147" s="2">
+        <v>54</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>9</v>
+      <c r="A148" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B148">
         <v>2007</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149">
+        <v>2007</v>
+      </c>
+      <c r="C149" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150">
+        <v>2007</v>
+      </c>
+      <c r="C150" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151">
+        <v>2007</v>
+      </c>
+      <c r="C151" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152">
+        <v>2007</v>
+      </c>
+      <c r="C152" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153">
+        <v>2007</v>
+      </c>
+      <c r="C153" s="2">
         <v>67</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B149">
-        <v>2008</v>
-      </c>
-      <c r="C149">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>9</v>
-      </c>
-      <c r="B150">
-        <v>2009</v>
-      </c>
-      <c r="C150">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>9</v>
-      </c>
-      <c r="B151">
-        <v>2010</v>
-      </c>
-      <c r="C151">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>9</v>
-      </c>
-      <c r="B152">
-        <v>2011</v>
-      </c>
-      <c r="C152">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>7</v>
-      </c>
-      <c r="B153">
-        <v>2006</v>
-      </c>
-      <c r="C153">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>7</v>
       </c>
       <c r="B154">
         <v>2007</v>
       </c>
-      <c r="C154">
-        <v>100</v>
+      <c r="C154" s="2">
+        <v>133</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>7</v>
+      <c r="A155" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B155">
-        <v>2008</v>
-      </c>
-      <c r="C155">
-        <v>103</v>
+        <v>2007</v>
+      </c>
+      <c r="C155" s="2">
+        <v>139</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>7</v>
+      <c r="A156" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B156">
-        <v>2009</v>
-      </c>
-      <c r="C156">
-        <v>96</v>
+        <v>2007</v>
+      </c>
+      <c r="C156" s="2">
+        <v>145</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>7</v>
+      <c r="A157" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B157">
-        <v>2010</v>
-      </c>
-      <c r="C157">
-        <v>109</v>
+        <v>2006</v>
+      </c>
+      <c r="C157" s="2">
+        <v>61</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>7</v>
+      <c r="A158" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B158">
-        <v>2011</v>
-      </c>
-      <c r="C158">
-        <v>132</v>
+        <v>2006</v>
+      </c>
+      <c r="C158" s="2">
+        <v>69</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>6</v>
+      <c r="A159" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B159">
         <v>2006</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160">
+        <v>2006</v>
+      </c>
+      <c r="C160" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161">
+        <v>2006</v>
+      </c>
+      <c r="C161" s="2">
         <v>217</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>6</v>
-      </c>
-      <c r="B160">
-        <v>2007</v>
-      </c>
-      <c r="C160">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>6</v>
-      </c>
-      <c r="B161">
-        <v>2008</v>
-      </c>
-      <c r="C161">
-        <v>257</v>
-      </c>
-    </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>6</v>
+      <c r="A162" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B162">
-        <v>2009</v>
-      </c>
-      <c r="C162">
-        <v>182</v>
+        <v>2006</v>
+      </c>
+      <c r="C162" s="2">
+        <v>101</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>6</v>
+      <c r="A163" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B163">
-        <v>2010</v>
-      </c>
-      <c r="C163">
-        <v>227</v>
+        <v>2006</v>
+      </c>
+      <c r="C163" s="2">
+        <v>171</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>6</v>
+      <c r="A164" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B164">
-        <v>2011</v>
-      </c>
-      <c r="C164">
-        <v>203</v>
+        <v>2006</v>
+      </c>
+      <c r="C164" s="2">
+        <v>452</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>5</v>
+      <c r="A165" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B165">
         <v>2006</v>
       </c>
-      <c r="C165">
-        <v>3</v>
+      <c r="C165" s="2">
+        <v>145</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>5</v>
+      <c r="A166" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B166">
-        <v>2007</v>
-      </c>
-      <c r="C166">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B167">
-        <v>2008</v>
-      </c>
-      <c r="C167">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B168">
-        <v>2009</v>
-      </c>
-      <c r="C168">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B169">
-        <v>2010</v>
-      </c>
-      <c r="C169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B170">
-        <v>2011</v>
-      </c>
-      <c r="C170">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>4</v>
-      </c>
-      <c r="B171">
-        <v>2008</v>
-      </c>
-      <c r="C171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>4</v>
-      </c>
-      <c r="B172">
-        <v>2009</v>
-      </c>
-      <c r="C172">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>4</v>
-      </c>
-      <c r="B173">
-        <v>2010</v>
-      </c>
-      <c r="C173">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>4</v>
-      </c>
-      <c r="B174">
-        <v>2011</v>
-      </c>
-      <c r="C174">
-        <v>5</v>
+        <v>2006</v>
+      </c>
+      <c r="C166" s="2">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C166"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>